--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klongnecker\Documents\Dropbox\GitHub_espresso\BWrepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0E8286-1CED-4971-9C0E-18D8ABD7B2B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02930A57-82ED-4998-8A9F-096622321561}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="4" r:id="rId1"/>
-    <sheet name="vars_meta_data" sheetId="3" r:id="rId2"/>
+    <sheet name="vars_meta_data_discrete" sheetId="3" r:id="rId2"/>
+    <sheet name="vars_meta_data_pump" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="230">
   <si>
     <t>Program</t>
   </si>
@@ -642,6 +643,75 @@
   </si>
   <si>
     <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, vertical zone, stratification</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Size_fraction</t>
+  </si>
+  <si>
+    <t>Filter_type</t>
+  </si>
+  <si>
+    <t>Asp_sd</t>
+  </si>
+  <si>
+    <t>Glu_sd</t>
+  </si>
+  <si>
+    <t>HisSer</t>
+  </si>
+  <si>
+    <t>HisSer_sd</t>
+  </si>
+  <si>
+    <t>Arg_sd</t>
+  </si>
+  <si>
+    <t>Thr_sd</t>
+  </si>
+  <si>
+    <t>Gly_sd</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Bala_sd</t>
+  </si>
+  <si>
+    <t>Tyr_sd</t>
+  </si>
+  <si>
+    <t>Ala_sd</t>
+  </si>
+  <si>
+    <t>GABA_sd</t>
+  </si>
+  <si>
+    <t>Met_sd</t>
+  </si>
+  <si>
+    <t>Val_sd</t>
+  </si>
+  <si>
+    <t>Phe_sd</t>
+  </si>
+  <si>
+    <t>Ile_sd</t>
+  </si>
+  <si>
+    <t>Leu_sd</t>
+  </si>
+  <si>
+    <t>Lys_sd</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1165,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3083,4 +3153,455 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1721BD-CA3E-4F68-BD4D-92695DCAE717}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -8,21 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klongnecker\Documents\Dropbox\GitHub_espresso\BWrepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02930A57-82ED-4998-8A9F-096622321561}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C71E566-F135-446C-947C-5348E4B64CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20660" windowHeight="7880" activeTab="1" xr2:uid="{BD19A4B1-5CB6-4C93-AA6F-C3C4861757B5}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="4" r:id="rId1"/>
-    <sheet name="vars_meta_data_discrete" sheetId="3" r:id="rId2"/>
-    <sheet name="vars_meta_data_pump" sheetId="5" r:id="rId3"/>
+    <sheet name="survey_biogeochemical" sheetId="3" r:id="rId2"/>
+    <sheet name="zooscan_mocness_output" sheetId="6" r:id="rId3"/>
+    <sheet name="964826_v1_pump_poc_pon_biosscop" sheetId="7" r:id="rId4"/>
+    <sheet name="964801_v1_pump_carbohydrates_bi" sheetId="8" r:id="rId5"/>
+    <sheet name="964684_v1_amino_acids_biosscope" sheetId="9" r:id="rId6"/>
+    <sheet name="920443_v1_biosscope_in_situ_pum" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="413">
   <si>
     <t>Program</t>
   </si>
@@ -712,6 +717,555 @@
   </si>
   <si>
     <t>Lys_sd</t>
+  </si>
+  <si>
+    <t>object_id</t>
+  </si>
+  <si>
+    <t>Particle identifier (cruise#_mocnessID_net#_sizefraction_image#)</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>AE1614, AE1712, AE1819, AE1830, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation, zooplankton, net tows</t>
+  </si>
+  <si>
+    <t>object_date</t>
+  </si>
+  <si>
+    <t>Date of Collection in format yyyymmdd</t>
+  </si>
+  <si>
+    <t>object_time</t>
+  </si>
+  <si>
+    <t>Time of Collection in format hhmmss</t>
+  </si>
+  <si>
+    <t>Datetime (UTC) of Collection in ISO 8601 format yyyy-mm-ddTHH:MMZ.</t>
+  </si>
+  <si>
+    <t>%Y-%m-%dT%H:%M:%SZ</t>
+  </si>
+  <si>
+    <t>object_depth_min</t>
+  </si>
+  <si>
+    <t>Minimum depth of net collection</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>object_depth_max</t>
+  </si>
+  <si>
+    <t>Maximum depth of net collection</t>
+  </si>
+  <si>
+    <t>object_annotation_hierarchy</t>
+  </si>
+  <si>
+    <t>Taxonomic classification (predicted except for AE1712 which was validated)</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>object_area</t>
+  </si>
+  <si>
+    <t>Object area in pixels</t>
+  </si>
+  <si>
+    <t>pix^2</t>
+  </si>
+  <si>
+    <t>object_major</t>
+  </si>
+  <si>
+    <t>Object major axis length in pixels</t>
+  </si>
+  <si>
+    <t>pix</t>
+  </si>
+  <si>
+    <t>object_minor</t>
+  </si>
+  <si>
+    <t>Object minor axis length in pixels</t>
+  </si>
+  <si>
+    <t>object_feret</t>
+  </si>
+  <si>
+    <t>Object Maximum feret diameter, i.e., the longest distance between any two points along the object boundary in pixels</t>
+  </si>
+  <si>
+    <t>object_esd</t>
+  </si>
+  <si>
+    <t>Object Equivalent Spherical Diameter</t>
+  </si>
+  <si>
+    <t>sample_tot_vol</t>
+  </si>
+  <si>
+    <t>Volume filtered</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>acq_sub_part</t>
+  </si>
+  <si>
+    <t>number of splits</t>
+  </si>
+  <si>
+    <t>Internal sample ID</t>
+  </si>
+  <si>
+    <t>BIOSSCOPE cruise identifier</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>Particle size range for water fraction</t>
+  </si>
+  <si>
+    <t>micrometers (um)</t>
+  </si>
+  <si>
+    <t>Filter type used for particle fraction (Nitex, GF/C ,GF75)</t>
+  </si>
+  <si>
+    <t>nanomoles carbon per liter</t>
+  </si>
+  <si>
+    <t>standard deviation of Aspartic Acid concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Glutamic Acid concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Histidine+Serine amino acid concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Arginine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Threonine concenctration</t>
+  </si>
+  <si>
+    <t>standard deviation of Glycine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Beta-alanine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Tyrosine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Alanine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Gamma-aminobutyric acid concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Methionine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Valine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Phenylalanine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Isoleucine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Leucine concentration</t>
+  </si>
+  <si>
+    <t>standard deviation of Lysine concentration</t>
+  </si>
+  <si>
+    <t>Date of sample collection</t>
+  </si>
+  <si>
+    <t>biogeochemistry</t>
+  </si>
+  <si>
+    <t>Fucose</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Fucose</t>
+  </si>
+  <si>
+    <t>nanomoles carbon per liter (nmol C/L)</t>
+  </si>
+  <si>
+    <t>Fucose_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Fucose concentration</t>
+  </si>
+  <si>
+    <t>Rhamnose</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Rhamnose</t>
+  </si>
+  <si>
+    <t>Rhamnose_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Rhamnose concentration</t>
+  </si>
+  <si>
+    <t>Galactosamine</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Galactosamine</t>
+  </si>
+  <si>
+    <t>Galactosamine_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Galactosamine concentration</t>
+  </si>
+  <si>
+    <t>Arabinose</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Arabinose</t>
+  </si>
+  <si>
+    <t>Arabinose_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Arabinose concentration</t>
+  </si>
+  <si>
+    <t>Glucosamine</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Glucosamine</t>
+  </si>
+  <si>
+    <t>Glucosamine_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Glucosamine concentration</t>
+  </si>
+  <si>
+    <t>Galactose</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Galactose</t>
+  </si>
+  <si>
+    <t>Galactose_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Galactose concentration</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Glucose</t>
+  </si>
+  <si>
+    <t>Glucose_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Glucose concentration</t>
+  </si>
+  <si>
+    <t>MannoseXylose</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Mannose+Xylose</t>
+  </si>
+  <si>
+    <t>MannoseXylose_sd</t>
+  </si>
+  <si>
+    <t>Ribose</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Ribose</t>
+  </si>
+  <si>
+    <t>Ribose_sd</t>
+  </si>
+  <si>
+    <t>MurAc</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Muramic acid</t>
+  </si>
+  <si>
+    <t>MurAc_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Muramic acid concentration</t>
+  </si>
+  <si>
+    <t>GalURA</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Galacturonic acid</t>
+  </si>
+  <si>
+    <t>GalURA_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Galacturonic acid concentration</t>
+  </si>
+  <si>
+    <t>GlcURA</t>
+  </si>
+  <si>
+    <t>Carbohydrate monomer average concentration: Glucuronic acid</t>
+  </si>
+  <si>
+    <t>GlcURA_sd</t>
+  </si>
+  <si>
+    <t>Standard deviation of Glucuronic acid concentration</t>
+  </si>
+  <si>
+    <t>Depth_sd</t>
+  </si>
+  <si>
+    <t>standard deviation of the depth</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>micrograms per liter (ug/L)</t>
+  </si>
+  <si>
+    <t>PN_sd</t>
+  </si>
+  <si>
+    <t>standard deviation for bulk particulate nitrogen</t>
+  </si>
+  <si>
+    <t>POC_sd</t>
+  </si>
+  <si>
+    <t>standard deviation for bulk particulate organic carbon</t>
+  </si>
+  <si>
+    <t>CN_acnonac</t>
+  </si>
+  <si>
+    <t>Carbon to nitrogen ratio of acidified POC to non-acidified PN</t>
+  </si>
+  <si>
+    <t>mole to mole (mol/mol)</t>
+  </si>
+  <si>
+    <t>CN_acnonac_sd</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>size_fraction_um</t>
+  </si>
+  <si>
+    <t>particle size range for water fraction</t>
+  </si>
+  <si>
+    <t>split_type</t>
+  </si>
+  <si>
+    <t>total_phytol_from_chlorophyll_concentration_ng_L</t>
+  </si>
+  <si>
+    <t>phytol concentration</t>
+  </si>
+  <si>
+    <t>nanograms per liter (ng/L)</t>
+  </si>
+  <si>
+    <t>phytol_concentration_sd_ng_L</t>
+  </si>
+  <si>
+    <t>phytol concentration standard deviation</t>
+  </si>
+  <si>
+    <t>d13C_phytol_corrected_value_per_mil</t>
+  </si>
+  <si>
+    <t>stable carbon isotope composition of phytol</t>
+  </si>
+  <si>
+    <t>per mil</t>
+  </si>
+  <si>
+    <t>d13C_phytol_sd_per_mil</t>
+  </si>
+  <si>
+    <t>stable carbon isotope composition of phytol standard deviation</t>
+  </si>
+  <si>
+    <t>d13C_POC_per_mil</t>
+  </si>
+  <si>
+    <t>stable carbon isotope composition of bulk particulate organic carbon</t>
+  </si>
+  <si>
+    <t>d13C_POC_sd_per_mil</t>
+  </si>
+  <si>
+    <t>stable carbon isotope composition of bulk particulate organic carbon standard deviation</t>
+  </si>
+  <si>
+    <t>POC_concentration_ug_L</t>
+  </si>
+  <si>
+    <t>bulk particulate organic carbon</t>
+  </si>
+  <si>
+    <t>d13C_THAA_per_mil</t>
+  </si>
+  <si>
+    <t>d13C values of total hydrolysable amino acids</t>
+  </si>
+  <si>
+    <t>d13C_THAA_sd_per_mil</t>
+  </si>
+  <si>
+    <t>d13C THAA standard deviation</t>
+  </si>
+  <si>
+    <t>TP_from_d15N_AA</t>
+  </si>
+  <si>
+    <t>TP_sd</t>
+  </si>
+  <si>
+    <t>Trophic Position (TP) standard deviation</t>
+  </si>
+  <si>
+    <t>Date (local, Bermuda) of sample collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM trophic position (TP) </t>
+  </si>
+  <si>
+    <t>calculated from measured d15N values of glutamic acid+glutamine (Glx) and phenylalanine (Phe) as in Chikaraishi et al. (2009): TP = (d15NGlx - d15NPhe - 3.4)/7.6 + 1 . TP propagated uncertainty was calculated as in Jarman et al. (2017).</t>
+  </si>
+  <si>
+    <t>One filter split was prepared per sample, and three aliquots from the final prepared solution were analyzed (triplicate injections).</t>
+  </si>
+  <si>
+    <t>average amino acid concentration: Aspartic Acid</t>
+  </si>
+  <si>
+    <t>average amino acid concentration:  Glutamic Acid</t>
+  </si>
+  <si>
+    <t>average amino acid concentration:  Histidine+Serine</t>
+  </si>
+  <si>
+    <t>average amino acid concentration:  Arginine</t>
+  </si>
+  <si>
+    <t>average amino acid concentration:  Threonine</t>
+  </si>
+  <si>
+    <t>average amino acid concentration:  Phenylalanine</t>
+  </si>
+  <si>
+    <t>average amino acid concentration:  Isoleucine</t>
+  </si>
+  <si>
+    <t>average amino acid concentration:  Leucine</t>
+  </si>
+  <si>
+    <t>average amino acid concentration:  Lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average amino acid concentration:  Glycine  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">average amino acid concentration:  Beta-alanine  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">average amino acid concentration:  Tyrosine  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">average amino acid concentration:  Alanine  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">average amino acid concentration:  Gamma-aminobutyric acid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">average amino acid concentration:  Methionine  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">average amino acid concentration:  Valine  </t>
+  </si>
+  <si>
+    <t>AE2114, AE2123, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>AE1819, AE1916, AE2114, AE2123, AE2213, AE2315,  Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>Date of sampling</t>
+  </si>
+  <si>
+    <t>PN; average bulk particulate nitrogen</t>
+  </si>
+  <si>
+    <t>one sample filter analyzed, replicate blanks used to incorporate uncertainty</t>
+  </si>
+  <si>
+    <t>POC; average bulk particulate organic carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter type used for particle fraction </t>
+  </si>
+  <si>
+    <t>Nitex, GF/C ,GF75</t>
+  </si>
+  <si>
+    <t>standard deviation of CN ratio</t>
+  </si>
+  <si>
+    <t>propagated error from POC and PN</t>
+  </si>
+  <si>
+    <t>AE1819, AE1916, AE2114, AE2123, AE2213, AE2315, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>Standard deviation of Mannose+Xylose concentration</t>
+  </si>
+  <si>
+    <t>Standard deviation of Ribose concentration</t>
+  </si>
+  <si>
+    <t>Condition under which filter was stored and split into fractions for analysis</t>
+  </si>
+  <si>
+    <t>frozen or freeze dried</t>
+  </si>
+  <si>
+    <t>AE1819, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
   </si>
 </sst>
 </file>
@@ -778,13 +1332,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,6 +1684,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1161,11 +1717,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3156,22 +3715,2704 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1721BD-CA3E-4F68-BD4D-92695DCAE717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8991815-1D31-4593-9F80-5C6680CDDD79}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2697E4D0-01FA-4D17-8BBE-F5E7FE4EFC08}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="61.54296875" customWidth="1"/>
+    <col min="3" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>398</v>
+      </c>
+      <c r="J8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>398</v>
+      </c>
+      <c r="J10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7099CAE1-6CB4-4BAE-923C-2C4D2F549912}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="53.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB974035-0AE0-4708-B122-4F86D23A7186}">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>397</v>
+      </c>
+      <c r="J7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>397</v>
+      </c>
+      <c r="J11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>397</v>
+      </c>
+      <c r="J13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>397</v>
+      </c>
+      <c r="J15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>397</v>
+      </c>
+      <c r="J17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>397</v>
+      </c>
+      <c r="J19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>397</v>
+      </c>
+      <c r="J21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>397</v>
+      </c>
+      <c r="J23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>397</v>
+      </c>
+      <c r="J25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>395</v>
+      </c>
+      <c r="D27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>397</v>
+      </c>
+      <c r="J27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>397</v>
+      </c>
+      <c r="J29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>397</v>
+      </c>
+      <c r="J31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" t="s">
+        <v>290</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" t="s">
+        <v>290</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>397</v>
+      </c>
+      <c r="J33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" t="s">
+        <v>290</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" t="s">
+        <v>290</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" t="s">
+        <v>290</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>389</v>
+      </c>
+      <c r="D37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>397</v>
+      </c>
+      <c r="J37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A31BB-44F9-4FF4-A103-F42535BD8AD4}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="2" max="2" width="56.7265625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
@@ -3211,47 +6452,152 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>182</v>
       </c>
       <c r="H2">
         <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>208</v>
       </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
       <c r="H3">
         <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>209</v>
       </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>182</v>
+      </c>
       <c r="H4">
         <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>182</v>
       </c>
       <c r="H5">
         <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
       </c>
       <c r="H6">
         <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J6" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>354</v>
+      </c>
+      <c r="B7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
       </c>
       <c r="G7" t="s">
         <v>181</v>
@@ -3259,10 +6605,25 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>357</v>
+      </c>
+      <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
       </c>
       <c r="G8" t="s">
         <v>181</v>
@@ -3270,10 +6631,25 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
       </c>
       <c r="G9" t="s">
         <v>181</v>
@@ -3281,10 +6657,25 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>362</v>
+      </c>
+      <c r="B10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
       </c>
       <c r="G10" t="s">
         <v>181</v>
@@ -3292,10 +6683,25 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>364</v>
+      </c>
+      <c r="B11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
       </c>
       <c r="G11" t="s">
         <v>181</v>
@@ -3303,10 +6709,25 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>366</v>
+      </c>
+      <c r="B12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
       </c>
       <c r="G12" t="s">
         <v>181</v>
@@ -3314,10 +6735,25 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>368</v>
+      </c>
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
       </c>
       <c r="G13" t="s">
         <v>181</v>
@@ -3325,280 +6761,115 @@
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>370</v>
+      </c>
+      <c r="B14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
       </c>
       <c r="G14" t="s">
         <v>181</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>372</v>
+      </c>
+      <c r="B15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
       </c>
       <c r="G15" t="s">
         <v>181</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>374</v>
+      </c>
+      <c r="B16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
       </c>
       <c r="G16" t="s">
         <v>181</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>412</v>
+      </c>
+      <c r="J16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>181</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="G19" t="s">
-        <v>181</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" t="s">
-        <v>181</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G36" t="s">
-        <v>181</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>181</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>229</v>
-      </c>
-      <c r="G38" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klongnecker\Documents\Dropbox\GitHub_espresso\BWrepos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub_niskin\BWrepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C71E566-F135-446C-947C-5348E4B64CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB940F-7176-43A0-9A83-EB8DD01A53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20660" windowHeight="7880" activeTab="1" xr2:uid="{BD19A4B1-5CB6-4C93-AA6F-C3C4861757B5}"/>
+    <workbookView xWindow="-28155" yWindow="4500" windowWidth="25590" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="414">
   <si>
     <t>Program</t>
   </si>
@@ -575,9 +574,6 @@
     <t>Biogeochemistry</t>
   </si>
   <si>
-    <t>Metadata</t>
-  </si>
-  <si>
     <t>Temporal</t>
   </si>
   <si>
@@ -728,9 +724,6 @@
     <t>not applicable</t>
   </si>
   <si>
-    <t>metadata</t>
-  </si>
-  <si>
     <t>AE1614, AE1712, AE1819, AE1830, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation, zooplankton, net tows</t>
   </si>
   <si>
@@ -1266,6 +1259,15 @@
   </si>
   <si>
     <t>AE1819, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>Uncharacterized</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>updated to use Physics and Uncharacterized</t>
   </si>
 </sst>
 </file>
@@ -1332,14 +1334,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1359,9 +1360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1399,9 +1400,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1434,26 +1435,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1486,26 +1470,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1679,33 +1646,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F2188-CDA4-45F0-9748-84A3C71A912B}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -1718,29 +1697,26 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
-    <col min="5" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1772,7 +1748,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1789,16 +1765,16 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1815,16 +1791,16 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1841,16 +1817,16 @@
         <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1867,16 +1843,16 @@
         <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1893,16 +1869,16 @@
         <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1919,16 +1895,16 @@
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1945,16 +1921,16 @@
         <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1973,17 +1949,17 @@
       <c r="F9" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>184</v>
+      <c r="G9" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2002,17 +1978,17 @@
       <c r="F10" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>184</v>
+      <c r="G10" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2031,17 +2007,17 @@
       <c r="F11" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>184</v>
+      <c r="G11" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2057,17 +2033,17 @@
       <c r="F12" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>184</v>
+      <c r="G12" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2086,17 +2062,17 @@
       <c r="F13" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>184</v>
+      <c r="G13" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2112,17 +2088,17 @@
       <c r="F14" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>184</v>
+      <c r="G14" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2138,17 +2114,17 @@
       <c r="F15" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>184</v>
+      <c r="G15" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2164,17 +2140,17 @@
       <c r="F16" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>184</v>
+      <c r="G16" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2190,17 +2166,17 @@
       <c r="F17" t="s">
         <v>175</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>185</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2216,17 +2192,17 @@
       <c r="F18" t="s">
         <v>175</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>184</v>
+      <c r="G18" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2242,17 +2218,17 @@
       <c r="F19" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>184</v>
+      <c r="G19" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2268,17 +2244,17 @@
       <c r="F20" t="s">
         <v>175</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>184</v>
+      <c r="G20" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2304,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2330,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2359,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2385,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2414,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2440,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2469,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2495,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2524,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2550,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2579,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2605,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2631,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2657,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2683,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2709,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2738,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2764,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2793,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2819,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2841,17 +2817,17 @@
       <c r="F41" t="s">
         <v>175</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>185</v>
+      <c r="G41" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2867,17 +2843,17 @@
       <c r="F42" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>185</v>
+      <c r="G42" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2893,17 +2869,17 @@
       <c r="F43" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>185</v>
+      <c r="G43" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2919,17 +2895,17 @@
       <c r="F44" t="s">
         <v>175</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>185</v>
+      <c r="G44" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2952,10 +2928,10 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2978,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3004,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3030,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3056,10 +3032,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3082,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3108,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3134,10 +3110,10 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3160,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3186,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3212,10 +3188,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3238,10 +3214,10 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3264,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3290,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3316,10 +3292,10 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3342,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3368,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3394,10 +3370,10 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3420,10 +3396,10 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3446,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3465,17 +3441,17 @@
       <c r="F65" t="s">
         <v>175</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>182</v>
+      <c r="G65" t="s">
+        <v>411</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3491,17 +3467,17 @@
       <c r="F66" t="s">
         <v>175</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>182</v>
+      <c r="G66" t="s">
+        <v>411</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3517,17 +3493,17 @@
       <c r="F67" t="s">
         <v>175</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>183</v>
+      <c r="G67" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3543,17 +3519,17 @@
       <c r="F68" t="s">
         <v>175</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>183</v>
+      <c r="G68" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3569,17 +3545,17 @@
       <c r="F69" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>184</v>
+      <c r="G69" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3595,17 +3571,17 @@
       <c r="F70" t="s">
         <v>175</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>184</v>
+      <c r="G70" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3621,17 +3597,17 @@
       <c r="F71" t="s">
         <v>175</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>184</v>
+      <c r="G71" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3647,17 +3623,17 @@
       <c r="F72" t="s">
         <v>175</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>184</v>
+      <c r="G72" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3673,20 +3649,20 @@
       <c r="F73" t="s">
         <v>175</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>183</v>
+      <c r="G73" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J73" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3702,8 +3678,8 @@
       <c r="F74" t="s">
         <v>175</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>183</v>
+      <c r="G74" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -3719,25 +3695,24 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -3769,38 +3744,38 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>231</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>232</v>
       </c>
-      <c r="E2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>233</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" t="s">
-        <v>236</v>
       </c>
       <c r="D3" t="s">
         <v>159</v>
@@ -3812,21 +3787,21 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
         <v>159</v>
@@ -3838,99 +3813,99 @@
         <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>239</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
         <v>240</v>
       </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>241</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>242</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>243</v>
       </c>
-      <c r="E6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>244</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>245</v>
-      </c>
-      <c r="D7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" t="s">
-        <v>247</v>
       </c>
       <c r="D8" t="s">
         <v>159</v>
@@ -3942,180 +3917,180 @@
         <v>175</v>
       </c>
       <c r="G8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
         <v>248</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>249</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>250</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
         <v>251</v>
       </c>
-      <c r="E9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
         <v>252</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>253</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
         <v>254</v>
       </c>
-      <c r="E10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>255</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>256</v>
       </c>
-      <c r="D11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>257</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>258</v>
       </c>
-      <c r="D12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>259</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>260</v>
       </c>
-      <c r="D13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
         <v>261</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>411</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>262</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
         <v>263</v>
       </c>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" t="s">
-        <v>265</v>
-      </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E15" t="s">
         <v>175</v>
@@ -4124,13 +4099,13 @@
         <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4143,18 +4118,17 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="61.54296875" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
     <col min="3" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -4186,12 +4160,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
         <v>159</v>
@@ -4203,21 +4177,21 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
         <v>159</v>
@@ -4229,21 +4203,21 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
         <v>159</v>
@@ -4255,47 +4229,47 @@
         <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>210</v>
       </c>
-      <c r="B5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D6" t="s">
         <v>159</v>
@@ -4307,24 +4281,24 @@
         <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>338</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7" t="s">
         <v>161</v>
@@ -4336,24 +4310,24 @@
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B8" t="s">
-        <v>400</v>
-      </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
         <v>175</v>
@@ -4368,21 +4342,21 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
         <v>175</v>
@@ -4397,18 +4371,18 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E10" t="s">
         <v>175</v>
@@ -4423,21 +4397,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
         <v>175</v>
@@ -4452,18 +4426,18 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" t="s">
         <v>346</v>
-      </c>
-      <c r="B12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" t="s">
-        <v>348</v>
       </c>
       <c r="E12" t="s">
         <v>175</v>
@@ -4478,18 +4452,18 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
         <v>175</v>
@@ -4504,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4520,17 +4494,16 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="53.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -4562,12 +4535,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
         <v>159</v>
@@ -4579,21 +4552,21 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
         <v>159</v>
@@ -4605,21 +4578,21 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" t="s">
-        <v>399</v>
       </c>
       <c r="D4" t="s">
         <v>159</v>
@@ -4631,47 +4604,47 @@
         <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>210</v>
       </c>
-      <c r="B5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D6" t="s">
         <v>159</v>
@@ -4683,625 +4656,625 @@
         <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
         <v>291</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>292</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
         <v>293</v>
       </c>
-      <c r="E7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>294</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>295</v>
       </c>
-      <c r="D8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>296</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>297</v>
       </c>
-      <c r="D9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>298</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>299</v>
       </c>
-      <c r="D10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>300</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>301</v>
       </c>
-      <c r="D11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>302</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>303</v>
       </c>
-      <c r="D12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" t="s">
-        <v>290</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>304</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>305</v>
       </c>
-      <c r="D13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>306</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>307</v>
       </c>
-      <c r="D14" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>308</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>309</v>
       </c>
-      <c r="D15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" t="s">
-        <v>290</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>310</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>311</v>
       </c>
-      <c r="D16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>312</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>313</v>
       </c>
-      <c r="D17" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" t="s">
-        <v>290</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>314</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>315</v>
       </c>
-      <c r="D18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" t="s">
-        <v>290</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>316</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>317</v>
       </c>
-      <c r="D19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" t="s">
-        <v>290</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>318</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>319</v>
       </c>
-      <c r="D20" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>320</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>321</v>
       </c>
-      <c r="D21" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" t="s">
-        <v>290</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
         <v>322</v>
       </c>
-      <c r="B22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" t="s">
-        <v>290</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>323</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>324</v>
       </c>
-      <c r="D23" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" t="s">
-        <v>290</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
         <v>325</v>
       </c>
-      <c r="B24" t="s">
-        <v>409</v>
-      </c>
-      <c r="D24" t="s">
-        <v>293</v>
-      </c>
-      <c r="E24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" t="s">
-        <v>290</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>326</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>327</v>
       </c>
-      <c r="D25" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>328</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>329</v>
       </c>
-      <c r="D26" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" t="s">
-        <v>290</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>330</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>331</v>
       </c>
-      <c r="D27" t="s">
-        <v>293</v>
-      </c>
-      <c r="E27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" t="s">
-        <v>290</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>332</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>333</v>
       </c>
-      <c r="D28" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" t="s">
-        <v>290</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>334</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>335</v>
       </c>
-      <c r="D29" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" t="s">
-        <v>290</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" t="s">
-        <v>337</v>
-      </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E30" t="s">
         <v>175</v>
@@ -5310,13 +5283,13 @@
         <v>175</v>
       </c>
       <c r="G30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5328,26 +5301,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB974035-0AE0-4708-B122-4F86D23A7186}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -5379,12 +5351,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
         <v>159</v>
@@ -5396,21 +5368,21 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
         <v>159</v>
@@ -5422,73 +5394,73 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>209</v>
       </c>
-      <c r="B4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
         <v>268</v>
       </c>
-      <c r="E4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>210</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" t="s">
-        <v>271</v>
       </c>
       <c r="D6" t="s">
         <v>159</v>
@@ -5500,24 +5472,24 @@
         <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
         <v>175</v>
@@ -5526,27 +5498,27 @@
         <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
         <v>175</v>
@@ -5555,108 +5527,108 @@
         <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>395</v>
+      </c>
+      <c r="J9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
         <v>272</v>
       </c>
-      <c r="E9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>397</v>
-      </c>
-      <c r="J9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>213</v>
       </c>
-      <c r="B10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>395</v>
+      </c>
+      <c r="J11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>214</v>
       </c>
-      <c r="B11" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>397</v>
-      </c>
-      <c r="J11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>215</v>
-      </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
         <v>175</v>
@@ -5665,24 +5637,24 @@
         <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
         <v>175</v>
@@ -5691,27 +5663,27 @@
         <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
         <v>175</v>
@@ -5720,24 +5692,24 @@
         <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
         <v>175</v>
@@ -5746,27 +5718,27 @@
         <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
         <v>175</v>
@@ -5775,24 +5747,24 @@
         <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
         <v>175</v>
@@ -5801,82 +5773,82 @@
         <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>218</v>
       </c>
-      <c r="B18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" t="s">
-        <v>290</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>395</v>
+      </c>
+      <c r="J19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>219</v>
       </c>
-      <c r="B19" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" t="s">
-        <v>290</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>397</v>
-      </c>
-      <c r="J19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E20" t="s">
         <v>175</v>
@@ -5885,24 +5857,24 @@
         <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
         <v>175</v>
@@ -5911,27 +5883,27 @@
         <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J21" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
         <v>175</v>
@@ -5940,24 +5912,24 @@
         <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" t="s">
         <v>175</v>
@@ -5966,27 +5938,27 @@
         <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J23" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E24" t="s">
         <v>175</v>
@@ -5995,24 +5967,24 @@
         <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E25" t="s">
         <v>175</v>
@@ -6021,27 +5993,27 @@
         <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E26" t="s">
         <v>175</v>
@@ -6050,53 +6022,53 @@
         <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
       <c r="B27" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>395</v>
       </c>
-      <c r="D27" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" t="s">
-        <v>290</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>397</v>
-      </c>
       <c r="J27" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
         <v>175</v>
@@ -6105,24 +6077,24 @@
         <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
         <v>175</v>
@@ -6131,27 +6103,27 @@
         <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
         <v>175</v>
@@ -6160,24 +6132,24 @@
         <v>175</v>
       </c>
       <c r="G30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
         <v>175</v>
@@ -6186,27 +6158,27 @@
         <v>175</v>
       </c>
       <c r="G31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J31" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
         <v>175</v>
@@ -6215,24 +6187,24 @@
         <v>175</v>
       </c>
       <c r="G32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
         <v>175</v>
@@ -6241,27 +6213,27 @@
         <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J33" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E34" t="s">
         <v>175</v>
@@ -6270,24 +6242,24 @@
         <v>175</v>
       </c>
       <c r="G34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
         <v>175</v>
@@ -6296,27 +6268,27 @@
         <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
         <v>175</v>
@@ -6325,24 +6297,24 @@
         <v>175</v>
       </c>
       <c r="G36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
         <v>175</v>
@@ -6351,42 +6323,42 @@
         <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J37" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" t="s">
         <v>288</v>
       </c>
-      <c r="D38" t="s">
-        <v>272</v>
-      </c>
-      <c r="E38" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" t="s">
-        <v>290</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6399,26 +6371,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A31BB-44F9-4FF4-A103-F42535BD8AD4}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" customWidth="1"/>
-    <col min="2" max="2" width="56.7265625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -6450,12 +6421,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
         <v>159</v>
@@ -6467,21 +6438,21 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
         <v>159</v>
@@ -6493,21 +6464,21 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
         <v>159</v>
@@ -6519,47 +6490,47 @@
         <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>351</v>
       </c>
-      <c r="B5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>353</v>
-      </c>
       <c r="B6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D6" t="s">
         <v>159</v>
@@ -6571,27 +6542,27 @@
         <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" t="s">
         <v>354</v>
-      </c>
-      <c r="B7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" t="s">
-        <v>356</v>
       </c>
       <c r="E7" t="s">
         <v>175</v>
@@ -6606,18 +6577,18 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E8" t="s">
         <v>175</v>
@@ -6632,18 +6603,18 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" t="s">
         <v>359</v>
-      </c>
-      <c r="B9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" t="s">
-        <v>361</v>
       </c>
       <c r="E9" t="s">
         <v>175</v>
@@ -6658,18 +6629,18 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E10" t="s">
         <v>175</v>
@@ -6684,18 +6655,18 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E11" t="s">
         <v>175</v>
@@ -6710,18 +6681,18 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E12" t="s">
         <v>175</v>
@@ -6736,18 +6707,18 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
         <v>175</v>
@@ -6762,18 +6733,18 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E14" t="s">
         <v>175</v>
@@ -6788,18 +6759,18 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E15" t="s">
         <v>175</v>
@@ -6814,15 +6785,15 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
         <v>159</v>
@@ -6840,18 +6811,18 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
         <v>159</v>
@@ -6869,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub_niskin\BWrepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB940F-7176-43A0-9A83-EB8DD01A53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671F3BAC-BC3F-419C-8F2B-ECCCEC7869B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28155" yWindow="4500" windowWidth="25590" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="4185" windowWidth="25185" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="420">
   <si>
     <t>Program</t>
   </si>
@@ -490,21 +490,6 @@
     <t>Season designation where 1=Mixed, 2=Spring Transition, 3=Stratified, 4=Fall Transition</t>
   </si>
   <si>
-    <t>CTD SeaBird 911+</t>
-  </si>
-  <si>
-    <t>Lachat QuikChem 8500 series 2</t>
-  </si>
-  <si>
-    <t>Shimadzu TOC-V</t>
-  </si>
-  <si>
-    <t>TNM-1 chemiluminescent detector assembly</t>
-  </si>
-  <si>
-    <t>Olympus BX51 epifluorescent microscope</t>
-  </si>
-  <si>
     <t>unitless</t>
   </si>
   <si>
@@ -583,69 +568,6 @@
     <t>Biology</t>
   </si>
   <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, time</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, time, rounded depth</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, temperature</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N+N, nitrate_nitrite, Nitrate+Nitrite-1, NO2+NO3</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,quality flag</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, nitrate, Nitrate,NO3</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,P, phosphate,Phosphate</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, nitrite, Nitrite</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, ammonia, ammonium, Ammonia, Ammonium</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,Si, silicate, Silicate</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,particulate organic carbon</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,particulate organic nitrogen</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,dissolved organic carbon</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,total dissolved carbon</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, Bacteria Enumeration, bacteria_enumeration, microscope,cell counts, heterotrophs</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, bacterial production, leucine incorporation, hetetrophic production, bacterial heterotrophic production,</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, DNA sequence data</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, mixed layer depth</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, deep chlorophyll maximum</t>
-  </si>
-  <si>
-    <t>AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, vertical zone, stratification</t>
-  </si>
-  <si>
     <t>Sample_ID</t>
   </si>
   <si>
@@ -724,9 +646,6 @@
     <t>not applicable</t>
   </si>
   <si>
-    <t>AE1614, AE1712, AE1819, AE1830, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation, zooplankton, net tows</t>
-  </si>
-  <si>
     <t>object_date</t>
   </si>
   <si>
@@ -1213,12 +1132,6 @@
     <t xml:space="preserve">average amino acid concentration:  Valine  </t>
   </si>
   <si>
-    <t>AE2114, AE2123, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
-  </si>
-  <si>
-    <t>AE1819, AE1916, AE2114, AE2123, AE2213, AE2315,  Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
-  </si>
-  <si>
     <t>Date of sampling</t>
   </si>
   <si>
@@ -1243,9 +1156,6 @@
     <t>propagated error from POC and PN</t>
   </si>
   <si>
-    <t>AE1819, AE1916, AE2114, AE2123, AE2213, AE2315, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
-  </si>
-  <si>
     <t>Standard deviation of Mannose+Xylose concentration</t>
   </si>
   <si>
@@ -1258,9 +1168,6 @@
     <t>frozen or freeze dried</t>
   </si>
   <si>
-    <t>AE1819, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
-  </si>
-  <si>
     <t>Uncharacterized</t>
   </si>
   <si>
@@ -1268,6 +1175,117 @@
   </si>
   <si>
     <t>updated to use Physics and Uncharacterized</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, time</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, time, rounded depth</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, temperature</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N+N, nitrate_nitrite, Nitrate+Nitrite-1, NO2+NO3</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,quality flag</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, nitrate, Nitrate,NO3</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, nitrite, Nitrite</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,P, phosphate,Phosphate</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, ammonia, ammonium, Ammonia, Ammonium</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,Si, silicate, Silicate</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,particulate organic carbon</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,particulate organic nitrogen</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,dissolved organic carbon</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,total dissolved carbon</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, Bacteria Enumeration, bacteria_enumeration, microscope,cell counts, heterotrophs</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, bacterial production, leucine incorporation, hetetrophic production, bacterial heterotrophic production,</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, DNA sequence data</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, mixed layer depth</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, deep chlorophyll maximum</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation, vertical zone, stratification</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1830, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation, zooplankton, net tows</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1819, AE1916, AE2114, AE2123, AE2213, AE2315, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1819, AE1916, AE2114, AE2123, AE2213, AE2315,  Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE2114, AE2123, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>BIOS-SCOPE, AE1819, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, McLane pump, cruise, in situ, insitu, in-situ, North Atlantic Ocean, observation</t>
+  </si>
+  <si>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>Autoanalyzer</t>
+  </si>
+  <si>
+    <t>High Temperature Combustion</t>
+  </si>
+  <si>
+    <t>Epifluorescent Microscope</t>
+  </si>
+  <si>
+    <t>Uncategorized</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Liquid Chromatograph</t>
+  </si>
+  <si>
+    <t>Elemental Analyzer</t>
+  </si>
+  <si>
+    <t>Liquid Scintillation Counter</t>
+  </si>
+  <si>
+    <t>Optical</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F2188-CDA4-45F0-9748-84A3C71A912B}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1659,22 +1677,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1684,7 +1702,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -1696,18 +1714,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
@@ -1755,23 +1770,26 @@
       <c r="B2" t="s">
         <v>83</v>
       </c>
+      <c r="C2" t="s">
+        <v>414</v>
+      </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1781,23 +1799,26 @@
       <c r="B3" t="s">
         <v>84</v>
       </c>
+      <c r="C3" t="s">
+        <v>414</v>
+      </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1807,23 +1828,26 @@
       <c r="B4" t="s">
         <v>85</v>
       </c>
+      <c r="C4" t="s">
+        <v>414</v>
+      </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1833,23 +1857,26 @@
       <c r="B5" t="s">
         <v>86</v>
       </c>
+      <c r="C5" t="s">
+        <v>414</v>
+      </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1859,23 +1886,26 @@
       <c r="B6" t="s">
         <v>87</v>
       </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1885,23 +1915,26 @@
       <c r="B7" t="s">
         <v>88</v>
       </c>
+      <c r="C7" t="s">
+        <v>414</v>
+      </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1911,23 +1944,26 @@
       <c r="B8" t="s">
         <v>89</v>
       </c>
+      <c r="C8" t="s">
+        <v>414</v>
+      </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1938,25 +1974,25 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>188</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1967,25 +2003,25 @@
         <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1996,25 +2032,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2024,23 +2060,26 @@
       <c r="B12" t="s">
         <v>92</v>
       </c>
+      <c r="C12" t="s">
+        <v>410</v>
+      </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2051,25 +2090,25 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2079,23 +2118,26 @@
       <c r="B14" t="s">
         <v>93</v>
       </c>
+      <c r="C14" t="s">
+        <v>410</v>
+      </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2105,23 +2147,26 @@
       <c r="B15" t="s">
         <v>94</v>
       </c>
+      <c r="C15" t="s">
+        <v>410</v>
+      </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2131,23 +2176,26 @@
       <c r="B16" t="s">
         <v>95</v>
       </c>
+      <c r="C16" t="s">
+        <v>410</v>
+      </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2157,23 +2205,26 @@
       <c r="B17" t="s">
         <v>96</v>
       </c>
+      <c r="C17" t="s">
+        <v>410</v>
+      </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2183,23 +2234,26 @@
       <c r="B18" t="s">
         <v>97</v>
       </c>
+      <c r="C18" t="s">
+        <v>410</v>
+      </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2209,23 +2263,26 @@
       <c r="B19" t="s">
         <v>98</v>
       </c>
+      <c r="C19" t="s">
+        <v>410</v>
+      </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2235,23 +2292,26 @@
       <c r="B20" t="s">
         <v>99</v>
       </c>
+      <c r="C20" t="s">
+        <v>415</v>
+      </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2262,25 +2322,25 @@
         <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2290,23 +2350,26 @@
       <c r="B22" t="s">
         <v>101</v>
       </c>
+      <c r="C22" t="s">
+        <v>411</v>
+      </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2317,25 +2380,25 @@
         <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2345,23 +2408,26 @@
       <c r="B24" t="s">
         <v>103</v>
       </c>
+      <c r="C24" t="s">
+        <v>411</v>
+      </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2372,25 +2438,25 @@
         <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2400,23 +2466,26 @@
       <c r="B26" t="s">
         <v>105</v>
       </c>
+      <c r="C26" t="s">
+        <v>411</v>
+      </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2427,25 +2496,25 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2455,23 +2524,26 @@
       <c r="B28" t="s">
         <v>107</v>
       </c>
+      <c r="C28" t="s">
+        <v>411</v>
+      </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2482,25 +2554,25 @@
         <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>194</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2510,23 +2582,26 @@
       <c r="B30" t="s">
         <v>109</v>
       </c>
+      <c r="C30" t="s">
+        <v>411</v>
+      </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2537,25 +2612,25 @@
         <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>195</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2565,23 +2640,26 @@
       <c r="B32" t="s">
         <v>111</v>
       </c>
+      <c r="C32" t="s">
+        <v>411</v>
+      </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2591,23 +2669,26 @@
       <c r="B33" t="s">
         <v>112</v>
       </c>
+      <c r="C33" t="s">
+        <v>417</v>
+      </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>196</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2617,23 +2698,26 @@
       <c r="B34" t="s">
         <v>113</v>
       </c>
+      <c r="C34" t="s">
+        <v>417</v>
+      </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2643,23 +2727,26 @@
       <c r="B35" t="s">
         <v>114</v>
       </c>
+      <c r="C35" t="s">
+        <v>417</v>
+      </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>197</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2669,23 +2756,26 @@
       <c r="B36" t="s">
         <v>115</v>
       </c>
+      <c r="C36" t="s">
+        <v>417</v>
+      </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2696,25 +2786,25 @@
         <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>198</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2724,23 +2814,26 @@
       <c r="B38" t="s">
         <v>117</v>
       </c>
+      <c r="C38" t="s">
+        <v>412</v>
+      </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2751,25 +2844,25 @@
         <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>412</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F39" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>199</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2779,23 +2872,26 @@
       <c r="B40" t="s">
         <v>119</v>
       </c>
+      <c r="C40" t="s">
+        <v>412</v>
+      </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2806,25 +2902,25 @@
         <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2834,23 +2930,26 @@
       <c r="B42" t="s">
         <v>121</v>
       </c>
+      <c r="C42" t="s">
+        <v>413</v>
+      </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2860,23 +2959,26 @@
       <c r="B43" t="s">
         <v>122</v>
       </c>
+      <c r="C43" t="s">
+        <v>418</v>
+      </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2886,23 +2988,26 @@
       <c r="B44" t="s">
         <v>123</v>
       </c>
+      <c r="C44" t="s">
+        <v>418</v>
+      </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2912,23 +3017,26 @@
       <c r="B45" t="s">
         <v>124</v>
       </c>
+      <c r="C45" t="s">
+        <v>416</v>
+      </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2938,23 +3046,26 @@
       <c r="B46" t="s">
         <v>125</v>
       </c>
+      <c r="C46" t="s">
+        <v>416</v>
+      </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2964,23 +3075,26 @@
       <c r="B47" t="s">
         <v>126</v>
       </c>
+      <c r="C47" t="s">
+        <v>416</v>
+      </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2990,23 +3104,26 @@
       <c r="B48" t="s">
         <v>127</v>
       </c>
+      <c r="C48" t="s">
+        <v>416</v>
+      </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3016,23 +3133,26 @@
       <c r="B49" t="s">
         <v>128</v>
       </c>
+      <c r="C49" t="s">
+        <v>416</v>
+      </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3042,23 +3162,26 @@
       <c r="B50" t="s">
         <v>129</v>
       </c>
+      <c r="C50" t="s">
+        <v>416</v>
+      </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3068,23 +3191,26 @@
       <c r="B51" t="s">
         <v>130</v>
       </c>
+      <c r="C51" t="s">
+        <v>416</v>
+      </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3094,23 +3220,26 @@
       <c r="B52" t="s">
         <v>131</v>
       </c>
+      <c r="C52" t="s">
+        <v>416</v>
+      </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3120,23 +3249,26 @@
       <c r="B53" t="s">
         <v>132</v>
       </c>
+      <c r="C53" t="s">
+        <v>416</v>
+      </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3146,23 +3278,26 @@
       <c r="B54" t="s">
         <v>133</v>
       </c>
+      <c r="C54" t="s">
+        <v>416</v>
+      </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3172,23 +3307,26 @@
       <c r="B55" t="s">
         <v>134</v>
       </c>
+      <c r="C55" t="s">
+        <v>416</v>
+      </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3198,23 +3336,26 @@
       <c r="B56" t="s">
         <v>135</v>
       </c>
+      <c r="C56" t="s">
+        <v>416</v>
+      </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F56" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3224,23 +3365,26 @@
       <c r="B57" t="s">
         <v>136</v>
       </c>
+      <c r="C57" t="s">
+        <v>416</v>
+      </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3250,23 +3394,26 @@
       <c r="B58" t="s">
         <v>137</v>
       </c>
+      <c r="C58" t="s">
+        <v>416</v>
+      </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F58" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3276,23 +3423,26 @@
       <c r="B59" t="s">
         <v>138</v>
       </c>
+      <c r="C59" t="s">
+        <v>416</v>
+      </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3302,23 +3452,26 @@
       <c r="B60" t="s">
         <v>139</v>
       </c>
+      <c r="C60" t="s">
+        <v>416</v>
+      </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3328,23 +3481,26 @@
       <c r="B61" t="s">
         <v>140</v>
       </c>
+      <c r="C61" t="s">
+        <v>416</v>
+      </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3354,23 +3510,26 @@
       <c r="B62" t="s">
         <v>141</v>
       </c>
+      <c r="C62" t="s">
+        <v>416</v>
+      </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E62" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F62" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3380,23 +3539,26 @@
       <c r="B63" t="s">
         <v>142</v>
       </c>
+      <c r="C63" t="s">
+        <v>416</v>
+      </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3406,23 +3568,26 @@
       <c r="B64" t="s">
         <v>143</v>
       </c>
+      <c r="C64" t="s">
+        <v>416</v>
+      </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E64" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F64" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3432,23 +3597,26 @@
       <c r="B65" t="s">
         <v>144</v>
       </c>
+      <c r="C65" t="s">
+        <v>414</v>
+      </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G65" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3458,23 +3626,26 @@
       <c r="B66" t="s">
         <v>145</v>
       </c>
+      <c r="C66" t="s">
+        <v>414</v>
+      </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F66" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G66" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3484,23 +3655,26 @@
       <c r="B67" t="s">
         <v>146</v>
       </c>
+      <c r="C67" t="s">
+        <v>414</v>
+      </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F67" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3510,23 +3684,26 @@
       <c r="B68" t="s">
         <v>147</v>
       </c>
+      <c r="C68" t="s">
+        <v>414</v>
+      </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3536,23 +3713,26 @@
       <c r="B69" t="s">
         <v>148</v>
       </c>
+      <c r="C69" t="s">
+        <v>414</v>
+      </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>203</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3562,23 +3742,26 @@
       <c r="B70" t="s">
         <v>149</v>
       </c>
+      <c r="C70" t="s">
+        <v>414</v>
+      </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>203</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3588,23 +3771,26 @@
       <c r="B71" t="s">
         <v>150</v>
       </c>
+      <c r="C71" t="s">
+        <v>414</v>
+      </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F71" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>203</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3614,23 +3800,26 @@
       <c r="B72" t="s">
         <v>151</v>
       </c>
+      <c r="C72" t="s">
+        <v>414</v>
+      </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>204</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3640,26 +3829,29 @@
       <c r="B73" t="s">
         <v>152</v>
       </c>
+      <c r="C73" t="s">
+        <v>414</v>
+      </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>404</v>
+      </c>
+      <c r="J73" t="s">
         <v>175</v>
-      </c>
-      <c r="F73" t="s">
-        <v>175</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>205</v>
-      </c>
-      <c r="J73" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3669,20 +3861,26 @@
       <c r="B74" t="s">
         <v>153</v>
       </c>
+      <c r="C74" t="s">
+        <v>414</v>
+      </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H74">
         <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3694,15 +3892,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8991815-1D31-4593-9F80-5C6680CDDD79}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -3746,80 +3944,89 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3827,285 +4034,318 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>414</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>419</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>419</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>419</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>419</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>229</v>
+      </c>
+      <c r="C12" t="s">
+        <v>419</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>419</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>233</v>
+      </c>
+      <c r="C14" t="s">
+        <v>414</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>414</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +4358,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,216 +4402,240 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="J6" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>414</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>417</v>
       </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="J8" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>417</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4379,109 +4643,121 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>371</v>
+      </c>
+      <c r="C10" t="s">
+        <v>417</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="J10" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>417</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>417</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>403</v>
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
+        <v>417</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="J13" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4494,13 +4770,13 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+      <selection activeCell="C8" sqref="C8:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4537,759 +4813,846 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J6" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>266</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>416</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>416</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>274</v>
+      </c>
+      <c r="C12" t="s">
+        <v>416</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>276</v>
+      </c>
+      <c r="C13" t="s">
+        <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>416</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>280</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>282</v>
+      </c>
+      <c r="C16" t="s">
+        <v>416</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>416</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>286</v>
+      </c>
+      <c r="C18" t="s">
+        <v>416</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>416</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>416</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>292</v>
+      </c>
+      <c r="C21" t="s">
+        <v>416</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>376</v>
+      </c>
+      <c r="C22" t="s">
+        <v>416</v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>295</v>
+      </c>
+      <c r="C23" t="s">
+        <v>416</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>377</v>
+      </c>
+      <c r="C24" t="s">
+        <v>416</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>325</v>
+        <v>298</v>
+      </c>
+      <c r="C25" t="s">
+        <v>416</v>
       </c>
       <c r="D25" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>300</v>
+      </c>
+      <c r="C26" t="s">
+        <v>416</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
+        <v>302</v>
+      </c>
+      <c r="C27" t="s">
+        <v>416</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>331</v>
+        <v>304</v>
+      </c>
+      <c r="C28" t="s">
+        <v>416</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s">
-        <v>333</v>
+        <v>306</v>
+      </c>
+      <c r="C29" t="s">
+        <v>416</v>
       </c>
       <c r="D29" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>308</v>
+      </c>
+      <c r="C30" t="s">
+        <v>416</v>
       </c>
       <c r="D30" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -5301,8 +5664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB974035-0AE0-4708-B122-4F86D23A7186}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5353,132 +5716,147 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5486,54 +5864,60 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5541,109 +5925,121 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>353</v>
+      </c>
+      <c r="C9" t="s">
+        <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J9" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>416</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>416</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J11" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>416</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5651,54 +6047,60 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J13" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>247</v>
+      </c>
+      <c r="C14" t="s">
+        <v>416</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5706,54 +6108,60 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>356</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J15" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="C16" t="s">
+        <v>416</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5761,109 +6169,121 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>416</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J17" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>249</v>
+      </c>
+      <c r="C18" t="s">
+        <v>416</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>362</v>
+      </c>
+      <c r="C19" t="s">
+        <v>416</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J19" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>250</v>
+      </c>
+      <c r="C20" t="s">
+        <v>416</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5871,54 +6291,60 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>390</v>
+        <v>363</v>
+      </c>
+      <c r="C21" t="s">
+        <v>416</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J21" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>416</v>
       </c>
       <c r="D22" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5926,54 +6352,60 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>391</v>
+        <v>364</v>
+      </c>
+      <c r="C23" t="s">
+        <v>416</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J23" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>252</v>
+      </c>
+      <c r="C24" t="s">
+        <v>416</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5981,54 +6413,60 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>365</v>
+      </c>
+      <c r="C25" t="s">
+        <v>416</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J25" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>253</v>
+      </c>
+      <c r="C26" t="s">
+        <v>416</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -6036,54 +6474,60 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
+        <v>366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>416</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J27" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>254</v>
+      </c>
+      <c r="C28" t="s">
+        <v>416</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6091,54 +6535,60 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>367</v>
+      </c>
+      <c r="C29" t="s">
+        <v>416</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J29" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>255</v>
+      </c>
+      <c r="C30" t="s">
+        <v>416</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -6146,54 +6596,60 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>357</v>
+      </c>
+      <c r="C31" t="s">
+        <v>416</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J31" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>256</v>
+      </c>
+      <c r="C32" t="s">
+        <v>416</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -6201,54 +6657,60 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>358</v>
+      </c>
+      <c r="C33" t="s">
+        <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J33" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>257</v>
+      </c>
+      <c r="C34" t="s">
+        <v>416</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -6256,54 +6718,60 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>359</v>
+      </c>
+      <c r="C35" t="s">
+        <v>416</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G35" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J35" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>258</v>
+      </c>
+      <c r="C36" t="s">
+        <v>416</v>
       </c>
       <c r="D36" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -6311,54 +6779,60 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>387</v>
+        <v>360</v>
+      </c>
+      <c r="C37" t="s">
+        <v>416</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J37" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>416</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6372,18 +6846,18 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -6423,424 +6897,472 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>378</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J6" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>326</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>329</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>334</v>
+      </c>
+      <c r="C10" t="s">
+        <v>416</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>416</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>338</v>
+      </c>
+      <c r="C12" t="s">
+        <v>416</v>
       </c>
       <c r="D12" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>340</v>
+      </c>
+      <c r="C13" t="s">
+        <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>342</v>
+      </c>
+      <c r="C14" t="s">
+        <v>416</v>
       </c>
       <c r="D14" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>344</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
+        <v>414</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J16" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>347</v>
+      </c>
+      <c r="C17" t="s">
+        <v>414</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/CMAP_variableMetadata_additions.xlsx
+++ b/CMAP_variableMetadata_additions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub_niskin\BWrepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671F3BAC-BC3F-419C-8F2B-ECCCEC7869B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E17A3A-58D1-4E40-9607-AF0D4C6D4F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="4185" windowWidth="25185" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="2205" windowWidth="27975" windowHeight="18135" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="397">
   <si>
     <t>Program</t>
   </si>
@@ -91,36 +91,12 @@
     <t>NO3_plus_NO2_QF</t>
   </si>
   <si>
-    <t>NO3</t>
-  </si>
-  <si>
-    <t>NO3_QF</t>
-  </si>
-  <si>
-    <t>NO2</t>
-  </si>
-  <si>
-    <t>NO2_QF</t>
-  </si>
-  <si>
     <t>PO4</t>
   </si>
   <si>
     <t>PO4_QF</t>
   </si>
   <si>
-    <t>NH4</t>
-  </si>
-  <si>
-    <t>NH4_QF</t>
-  </si>
-  <si>
-    <t>SiO2</t>
-  </si>
-  <si>
-    <t>SiO2_QF</t>
-  </si>
-  <si>
     <t>POC</t>
   </si>
   <si>
@@ -301,9 +277,6 @@
     <t>Standard CTD temperature profiling</t>
   </si>
   <si>
-    <t>Temperature from SeaBird 35 CTD which has 8 second average taken at time of the bottle fire. This sensor has an accuracy of 0.0001C as compared to the standard profiling units which have an accuracy of 0.002C.</t>
-  </si>
-  <si>
     <t>Salinity measured by CTD</t>
   </si>
   <si>
@@ -334,36 +307,12 @@
     <t>Nitrate plus nitrite quality flag</t>
   </si>
   <si>
-    <t>Nitrate concentration</t>
-  </si>
-  <si>
-    <t>Nitrate quality flag</t>
-  </si>
-  <si>
-    <t>Nitrite concentration</t>
-  </si>
-  <si>
-    <t>Nitrite quality flag</t>
-  </si>
-  <si>
     <t>Ortho-phosphate concentration</t>
   </si>
   <si>
     <t>Ortho-phosphate quality flag</t>
   </si>
   <si>
-    <t>Ammonium concentration</t>
-  </si>
-  <si>
-    <t>Ammonium quality flag</t>
-  </si>
-  <si>
-    <t>Silicate concentration</t>
-  </si>
-  <si>
-    <t>Silicate quality flag</t>
-  </si>
-  <si>
     <t>Particulate organic carbon</t>
   </si>
   <si>
@@ -442,9 +391,6 @@
     <t>Amino acid methionine concentration</t>
   </si>
   <si>
-    <t>Amino acid phenylalanine concentration</t>
-  </si>
-  <si>
     <t>Amino acid serine concentration</t>
   </si>
   <si>
@@ -523,15 +469,9 @@
     <t>microgram per liter (ug/L)</t>
   </si>
   <si>
-    <t>microEinsteins per second per square meter (uE/m^2/sec)</t>
-  </si>
-  <si>
     <t>micrograms per kilogram (ug/kg)</t>
   </si>
   <si>
-    <t>cells times 100 million per kilogram (cells*10^8/kg)</t>
-  </si>
-  <si>
     <t>picomole per liter per hour (pmol/L/hr)</t>
   </si>
   <si>
@@ -559,12 +499,6 @@
     <t>Biogeochemistry</t>
   </si>
   <si>
-    <t>Temporal</t>
-  </si>
-  <si>
-    <t>Physical</t>
-  </si>
-  <si>
     <t>Biology</t>
   </si>
   <si>
@@ -1168,9 +1102,6 @@
     <t>frozen or freeze dried</t>
   </si>
   <si>
-    <t>Uncharacterized</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
@@ -1198,21 +1129,9 @@
     <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,quality flag</t>
   </si>
   <si>
-    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, nitrate, Nitrate,NO3</t>
-  </si>
-  <si>
-    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, nitrite, Nitrite</t>
-  </si>
-  <si>
     <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,P, phosphate,Phosphate</t>
   </si>
   <si>
-    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,N, ammonia, ammonium, Ammonia, Ammonium</t>
-  </si>
-  <si>
-    <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,Si, silicate, Silicate</t>
-  </si>
-  <si>
     <t>BIOS-SCOPE, AE1614, AE1712, AE1819, AE1916, Bermuda Institute of Ocean Sciences, bio, biogeo, biogeochemistry, biology, BIOS, Bottle, cruise, Discrete, in situ, insitu, in-situ, North Atlantic Ocean, observation,particulate organic carbon</t>
   </si>
   <si>
@@ -1273,9 +1192,6 @@
     <t>Uncategorized</t>
   </si>
   <si>
-    <t>Bottle</t>
-  </si>
-  <si>
     <t>Liquid Chromatograph</t>
   </si>
   <si>
@@ -1286,6 +1202,21 @@
   </si>
   <si>
     <t>Optical</t>
+  </si>
+  <si>
+    <t>Computed</t>
+  </si>
+  <si>
+    <t>Meteorology</t>
+  </si>
+  <si>
+    <t>Temperature from SeaBird 35 CTD which has 8 second average taken at time of the bottle fire</t>
+  </si>
+  <si>
+    <t>microEinsteins per square m per sec (uE/m^2/sec)</t>
+  </si>
+  <si>
+    <t>cells x 100 million per kg (cells*10^8/kg)</t>
   </si>
 </sst>
 </file>
@@ -1677,22 +1608,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1702,7 +1633,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1712,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1654,7 @@
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -1733,34 +1664,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1768,28 +1699,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1797,28 +1728,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1826,28 +1757,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1855,28 +1786,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1884,28 +1815,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>387</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1913,28 +1844,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>387</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1942,28 +1873,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1971,28 +1902,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>178</v>
+        <v>358</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2000,28 +1931,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="C10" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2032,25 +1963,25 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2058,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2090,25 +2021,25 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2116,28 +2047,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2145,28 +2076,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2174,28 +2105,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2203,28 +2134,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2232,28 +2163,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>395</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2261,28 +2192,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2290,28 +2221,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2319,28 +2250,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2348,28 +2279,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2377,28 +2308,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2406,28 +2337,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2435,28 +2366,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2464,28 +2395,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2493,28 +2424,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2522,28 +2453,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2551,28 +2482,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2580,28 +2511,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2609,28 +2540,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2638,28 +2569,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2667,28 +2598,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>396</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2696,28 +2627,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2725,28 +2656,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F35" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2754,28 +2685,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2783,28 +2714,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2812,28 +2743,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2841,28 +2772,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2870,28 +2801,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2899,28 +2830,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2928,28 +2859,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2957,28 +2888,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2986,28 +2917,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3015,28 +2946,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3044,28 +2975,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3073,28 +3004,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3102,785 +3033,524 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>388</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>388</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>388</v>
+      </c>
+      <c r="D53" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>388</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>388</v>
+      </c>
+      <c r="D55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" t="s">
+        <v>387</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>387</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" t="s">
+        <v>387</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>392</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>129</v>
       </c>
-      <c r="C50" t="s">
-        <v>416</v>
-      </c>
-      <c r="D50" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C59" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>130</v>
       </c>
-      <c r="C51" t="s">
-        <v>416</v>
-      </c>
-      <c r="D51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C60" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>131</v>
       </c>
-      <c r="C52" t="s">
-        <v>416</v>
-      </c>
-      <c r="D52" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" t="s">
-        <v>170</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C61" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>132</v>
       </c>
-      <c r="C53" t="s">
-        <v>416</v>
-      </c>
-      <c r="D53" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" t="s">
-        <v>170</v>
-      </c>
-      <c r="F53" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C62" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>133</v>
       </c>
-      <c r="C54" t="s">
-        <v>416</v>
-      </c>
-      <c r="D54" t="s">
-        <v>169</v>
-      </c>
-      <c r="E54" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C63" t="s">
+        <v>392</v>
+      </c>
+      <c r="D63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>134</v>
       </c>
-      <c r="C55" t="s">
-        <v>416</v>
-      </c>
-      <c r="D55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" t="s">
-        <v>170</v>
-      </c>
-      <c r="F55" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>377</v>
+      </c>
+      <c r="J64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>135</v>
       </c>
-      <c r="C56" t="s">
-        <v>416</v>
-      </c>
-      <c r="D56" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C65" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" t="s">
         <v>136</v>
       </c>
-      <c r="C57" t="s">
-        <v>416</v>
-      </c>
-      <c r="D57" t="s">
-        <v>169</v>
-      </c>
-      <c r="E57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" t="s">
-        <v>416</v>
-      </c>
-      <c r="D58" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" t="s">
-        <v>416</v>
-      </c>
-      <c r="D59" t="s">
-        <v>169</v>
-      </c>
-      <c r="E59" t="s">
-        <v>170</v>
-      </c>
-      <c r="F59" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" t="s">
-        <v>416</v>
-      </c>
-      <c r="D60" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60" t="s">
-        <v>170</v>
-      </c>
-      <c r="F60" t="s">
-        <v>170</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" t="s">
-        <v>416</v>
-      </c>
-      <c r="D61" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" t="s">
-        <v>170</v>
-      </c>
-      <c r="F61" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" t="s">
-        <v>416</v>
-      </c>
-      <c r="D62" t="s">
-        <v>169</v>
-      </c>
-      <c r="E62" t="s">
-        <v>170</v>
-      </c>
-      <c r="F62" t="s">
-        <v>170</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" t="s">
-        <v>416</v>
-      </c>
-      <c r="D63" t="s">
-        <v>169</v>
-      </c>
-      <c r="E63" t="s">
-        <v>170</v>
-      </c>
-      <c r="F63" t="s">
-        <v>170</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" t="s">
-        <v>416</v>
-      </c>
-      <c r="D64" t="s">
-        <v>169</v>
-      </c>
-      <c r="E64" t="s">
-        <v>170</v>
-      </c>
-      <c r="F64" t="s">
-        <v>170</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" t="s">
-        <v>414</v>
-      </c>
-      <c r="D65" t="s">
-        <v>154</v>
-      </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F65" t="s">
-        <v>170</v>
-      </c>
-      <c r="G65" t="s">
-        <v>380</v>
+        <v>150</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" t="s">
-        <v>414</v>
-      </c>
-      <c r="D66" t="s">
-        <v>154</v>
-      </c>
-      <c r="E66" t="s">
-        <v>170</v>
-      </c>
-      <c r="F66" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" t="s">
-        <v>380</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" t="s">
-        <v>414</v>
-      </c>
-      <c r="D67" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" t="s">
-        <v>170</v>
-      </c>
-      <c r="F67" t="s">
-        <v>170</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" t="s">
-        <v>414</v>
-      </c>
-      <c r="D68" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" t="s">
-        <v>170</v>
-      </c>
-      <c r="F68" t="s">
-        <v>170</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" t="s">
-        <v>414</v>
-      </c>
-      <c r="D69" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" t="s">
-        <v>170</v>
-      </c>
-      <c r="F69" t="s">
-        <v>170</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" t="s">
-        <v>414</v>
-      </c>
-      <c r="D70" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" t="s">
-        <v>170</v>
-      </c>
-      <c r="F70" t="s">
-        <v>170</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" t="s">
-        <v>414</v>
-      </c>
-      <c r="D71" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" t="s">
-        <v>170</v>
-      </c>
-      <c r="F71" t="s">
-        <v>170</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" t="s">
-        <v>414</v>
-      </c>
-      <c r="D72" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" t="s">
-        <v>170</v>
-      </c>
-      <c r="F72" t="s">
-        <v>170</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" t="s">
-        <v>414</v>
-      </c>
-      <c r="D73" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" t="s">
-        <v>170</v>
-      </c>
-      <c r="F73" t="s">
-        <v>170</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>404</v>
-      </c>
-      <c r="J73" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" t="s">
-        <v>414</v>
-      </c>
-      <c r="D74" t="s">
-        <v>154</v>
-      </c>
-      <c r="E74" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" t="s">
-        <v>170</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -3892,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8991815-1D31-4593-9F80-5C6680CDDD79}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,121 +3582,121 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4034,318 +3704,318 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4028,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4370,394 +4040,394 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="J8" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="J10" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D12" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="J13" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4770,7 +4440,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C30"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4781,878 +4451,878 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C20" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C21" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C24" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C27" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C28" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C29" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D30" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -5665,14 +5335,14 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C38"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -5684,1155 +5354,1155 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J7" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J9" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J11" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J13" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J15" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J17" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J19" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C21" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J21" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C23" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J23" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J25" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C27" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J27" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J29" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C31" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J31" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C32" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J33" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="C35" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F35" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J35" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J37" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C38" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -6845,8 +6515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A31BB-44F9-4FF4-A103-F42535BD8AD4}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6865,504 +6535,504 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="J6" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="J16" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
